--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value356.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value356.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8592209330614597</v>
+        <v>0.9121159911155701</v>
       </c>
       <c r="B1">
-        <v>1.461810317710928</v>
+        <v>2.725085496902466</v>
       </c>
       <c r="C1">
-        <v>3.218857824389671</v>
+        <v>4.447235107421875</v>
       </c>
       <c r="D1">
-        <v>2.940784916930614</v>
+        <v>2.155037879943848</v>
       </c>
       <c r="E1">
-        <v>1.001430263665654</v>
+        <v>1.273527264595032</v>
       </c>
     </row>
   </sheetData>
